--- a/03_手順/handson手順.xlsx
+++ b/03_手順/handson手順.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\33_team若手\05_ぜきLabo\02_ECS(Fargate)_ホシナ担当\03_手順\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130E4959-BCFA-46C0-ABD4-8CF9E92E4AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB7F7B-5ABB-43BF-8EFA-7A786F5E217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2805" windowWidth="29040" windowHeight="15840" xr2:uid="{A9EF5547-68E5-427B-AF4B-CF2E24DA9505}"/>
   </bookViews>
   <sheets>
     <sheet name="アーキテクチャ図" sheetId="5" r:id="rId1"/>
-    <sheet name="前提作業" sheetId="4" r:id="rId2"/>
-    <sheet name="本編" sheetId="1" r:id="rId3"/>
-    <sheet name="後かたづけ" sheetId="3" r:id="rId4"/>
+    <sheet name="資材DL" sheetId="6" r:id="rId2"/>
+    <sheet name="前提作業" sheetId="4" r:id="rId3"/>
+    <sheet name="本編" sheetId="1" r:id="rId4"/>
+    <sheet name="後かたづけ" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="195">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -939,13 +940,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.AWSマネージドコンソールより「CloudFamation」を選択する。</t>
-    <rPh sb="33" eb="35">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CloudFamation
 サービス画面表示</t>
     <rPh sb="18" eb="20">
@@ -1058,10 +1052,6 @@
     <rPh sb="37" eb="39">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CloudFamation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1700,6 +1690,72 @@
     <rPh sb="28" eb="29">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京リージョンで対応を実施する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudFormation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.AWSマネージドコンソールより「CloudFormation」を選択する。</t>
+    <rPh sb="34" eb="36">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.東京リージョンであること</t>
+    <rPh sb="2" eb="4">
+      <t>トウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.使う資料の格納先</t>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/Hoshi-Wataru/compass-ecs-handson</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.DL手順</t>
+    <rPh sb="4" eb="6">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1.画面右上の「Code」-「Download ZIP」でダウンロードが可能です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4550,8 +4606,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3819604" y="5489284"/>
-          <a:ext cx="1278059" cy="356987"/>
+          <a:off x="3675528" y="5277973"/>
+          <a:ext cx="1230035" cy="347382"/>
           <a:chOff x="3440204" y="5457267"/>
           <a:chExt cx="1230035" cy="347382"/>
         </a:xfrm>
@@ -4832,8 +4888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2902642" y="4806044"/>
-          <a:ext cx="1381795" cy="366592"/>
+          <a:off x="2796987" y="4623548"/>
+          <a:ext cx="1324164" cy="347382"/>
           <a:chOff x="3424516" y="4802842"/>
           <a:chExt cx="1324164" cy="347382"/>
         </a:xfrm>
@@ -6619,15 +6675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
+      <xdr:colOff>72038</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>195875</xdr:rowOff>
+      <xdr:rowOff>229493</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6650,8 +6706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10273393" y="979715"/>
-          <a:ext cx="4191000" cy="1175588"/>
+          <a:off x="10018059" y="1916207"/>
+          <a:ext cx="4027714" cy="1137168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8437,7 +8493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EABA214-F65F-48EB-ACFA-1B68DBE35301}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8454,10 +8510,718 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C9BCEE-2A34-4D61-B2F3-246F018972E5}">
+  <dimension ref="B3:CO9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="93" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="27"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="27"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="27"/>
+      <c r="BV3" s="27"/>
+      <c r="BW3" s="27"/>
+      <c r="BX3" s="27"/>
+      <c r="BY3" s="27"/>
+      <c r="BZ3" s="27"/>
+      <c r="CA3" s="27"/>
+      <c r="CB3" s="27"/>
+      <c r="CC3" s="27"/>
+      <c r="CD3" s="27"/>
+      <c r="CE3" s="27"/>
+      <c r="CF3" s="27"/>
+      <c r="CG3" s="27"/>
+      <c r="CH3" s="27"/>
+      <c r="CI3" s="27"/>
+      <c r="CJ3" s="27"/>
+      <c r="CK3" s="27"/>
+      <c r="CL3" s="27"/>
+      <c r="CM3" s="27"/>
+      <c r="CN3" s="27"/>
+      <c r="CO3" s="27"/>
+    </row>
+    <row r="4" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B4" s="24">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="4"/>
+    </row>
+    <row r="5" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+      <c r="CO5" s="7"/>
+    </row>
+    <row r="6" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="5"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+      <c r="CO6" s="7"/>
+    </row>
+    <row r="7" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+      <c r="CO7" s="7"/>
+    </row>
+    <row r="8" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+      <c r="CO8" s="7"/>
+    </row>
+    <row r="9" spans="2:93" x14ac:dyDescent="0.4">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="10"/>
+      <c r="BL9" s="8"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="9"/>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="9"/>
+      <c r="CD9" s="9"/>
+      <c r="CE9" s="9"/>
+      <c r="CF9" s="9"/>
+      <c r="CG9" s="9"/>
+      <c r="CH9" s="9"/>
+      <c r="CI9" s="9"/>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
+      <c r="CM9" s="9"/>
+      <c r="CN9" s="9"/>
+      <c r="CO9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:AG3"/>
+    <mergeCell ref="AH3:BK3"/>
+    <mergeCell ref="BL3:CO3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F8E434-6362-46E1-AF08-3FAD3C1BEC51}">
   <dimension ref="B3:CO35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8577,7 +9341,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -8672,7 +9436,9 @@
     <row r="5" spans="2:93" x14ac:dyDescent="0.4">
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -8956,10 +9722,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -9029,7 +9795,7 @@
         <v>15</v>
       </c>
       <c r="BN8" s="16" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="BO8" s="3"/>
       <c r="BP8" s="3"/>
@@ -9722,10 +10488,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -9757,7 +10523,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
@@ -10011,7 +10777,7 @@
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -10043,7 +10809,7 @@
       <c r="AF19" s="6"/>
       <c r="AG19" s="7"/>
       <c r="AH19" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
@@ -10115,7 +10881,7 @@
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -10306,7 +11072,7 @@
       <c r="C22" s="25"/>
       <c r="D22" s="17"/>
       <c r="E22" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -10367,7 +11133,9 @@
       <c r="BJ22" s="6"/>
       <c r="BK22" s="7"/>
       <c r="BL22" s="5"/>
-      <c r="BM22" s="6"/>
+      <c r="BM22" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="BN22" s="6"/>
       <c r="BO22" s="6"/>
       <c r="BP22" s="6"/>
@@ -10403,7 +11171,7 @@
       <c r="D23" s="17"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -10499,7 +11267,7 @@
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
@@ -10595,7 +11363,7 @@
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -10784,7 +11552,7 @@
       <c r="C27" s="25"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -10881,7 +11649,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -10977,7 +11745,7 @@
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -11074,7 +11842,7 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -11170,7 +11938,7 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -11358,7 +12126,7 @@
       <c r="C33" s="25"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -11455,7 +12223,7 @@
       <c r="D34" s="5"/>
       <c r="E34" s="11"/>
       <c r="F34" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -11658,11 +12426,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7331670-DE21-465E-9C0C-C0FA9F99149D}">
   <dimension ref="B3:CO236"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -18164,7 +18934,7 @@
         <v>30</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -19820,7 +20590,7 @@
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -19852,7 +20622,7 @@
       <c r="AF88" s="6"/>
       <c r="AG88" s="7"/>
       <c r="AH88" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
@@ -19919,7 +20689,7 @@
       <c r="C89" s="25"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -20015,7 +20785,7 @@
       <c r="C90" s="25"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -20112,7 +20882,7 @@
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -20208,7 +20978,7 @@
       <c r="D92" s="5"/>
       <c r="E92" s="11"/>
       <c r="F92" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -20850,7 +21620,7 @@
         <v>48</v>
       </c>
       <c r="BN98" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BO98" s="6"/>
       <c r="BP98" s="6"/>
@@ -20952,7 +21722,7 @@
         <v>48</v>
       </c>
       <c r="BN99" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BO99" s="6"/>
       <c r="BP99" s="6"/>
@@ -21054,7 +21824,7 @@
         <v>48</v>
       </c>
       <c r="BN100" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BO100" s="6"/>
       <c r="BP100" s="6"/>
@@ -21156,7 +21926,7 @@
         <v>48</v>
       </c>
       <c r="BN101" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BO101" s="6"/>
       <c r="BP101" s="6"/>
@@ -21258,7 +22028,7 @@
         <v>48</v>
       </c>
       <c r="BN102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BO102" s="6"/>
       <c r="BP102" s="6"/>
@@ -21360,7 +22130,7 @@
         <v>48</v>
       </c>
       <c r="BN103" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="BO103" s="6"/>
       <c r="BP103" s="6"/>
@@ -22089,7 +22859,7 @@
         <v>60</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -22153,7 +22923,7 @@
         <v>60</v>
       </c>
       <c r="BN111" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="BO111" s="6"/>
       <c r="BP111" s="6"/>
@@ -22191,7 +22961,7 @@
         <v>60</v>
       </c>
       <c r="F112" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -22255,7 +23025,7 @@
         <v>60</v>
       </c>
       <c r="BN112" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BO112" s="6"/>
       <c r="BP112" s="6"/>
@@ -22571,7 +23341,7 @@
       <c r="B116" s="25"/>
       <c r="C116" s="29"/>
       <c r="D116" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -22603,7 +23373,7 @@
       <c r="AF116" s="6"/>
       <c r="AG116" s="7"/>
       <c r="AH116" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AI116" s="6"/>
       <c r="AJ116" s="6"/>
@@ -24290,10 +25060,10 @@
         <v>7</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -24325,7 +25095,7 @@
       <c r="AF134" s="6"/>
       <c r="AG134" s="7"/>
       <c r="AH134" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AI134" s="6"/>
       <c r="AJ134" s="6"/>
@@ -24579,7 +25349,7 @@
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="6"/>
@@ -24611,7 +25381,7 @@
       <c r="AF137" s="6"/>
       <c r="AG137" s="7"/>
       <c r="AH137" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI137" s="6"/>
       <c r="AJ137" s="6"/>
@@ -27443,7 +28213,7 @@
         <v>71</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E167" s="23"/>
       <c r="F167" s="23"/>
@@ -28207,7 +28977,7 @@
       <c r="C175" s="29"/>
       <c r="D175" s="5"/>
       <c r="E175" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -28303,7 +29073,7 @@
       <c r="D176" s="5"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
@@ -28398,7 +29168,7 @@
       <c r="D177" s="5"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
@@ -28585,7 +29355,7 @@
       <c r="C179" s="29"/>
       <c r="D179" s="5"/>
       <c r="E179" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -28685,7 +29455,7 @@
       <c r="C180" s="29"/>
       <c r="D180" s="5"/>
       <c r="F180" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
@@ -28784,7 +29554,7 @@
       <c r="C181" s="29"/>
       <c r="D181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -28879,7 +29649,7 @@
       <c r="C182" s="29"/>
       <c r="D182" s="5"/>
       <c r="F182" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -28974,7 +29744,7 @@
       <c r="C183" s="29"/>
       <c r="D183" s="5"/>
       <c r="F183" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
@@ -29069,7 +29839,7 @@
       <c r="C184" s="29"/>
       <c r="D184" s="5"/>
       <c r="F184" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
@@ -29164,7 +29934,7 @@
       <c r="C185" s="29"/>
       <c r="D185" s="5"/>
       <c r="F185" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
@@ -29259,7 +30029,7 @@
       <c r="C186" s="29"/>
       <c r="D186" s="5"/>
       <c r="F186" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
@@ -29355,7 +30125,7 @@
       <c r="D187" s="5"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H187" s="6"/>
       <c r="I187" s="6"/>
@@ -29450,7 +30220,7 @@
       <c r="D188" s="5"/>
       <c r="F188" s="6"/>
       <c r="G188" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H188" s="6"/>
       <c r="I188" s="6"/>
@@ -29545,7 +30315,7 @@
       <c r="D189" s="5"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H189" s="6"/>
       <c r="I189" s="6"/>
@@ -29640,7 +30410,7 @@
       <c r="D190" s="5"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H190" s="6"/>
       <c r="I190" s="6"/>
@@ -29736,7 +30506,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H191" s="6"/>
       <c r="I191" s="6"/>
@@ -29831,7 +30601,7 @@
       <c r="D192" s="5"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
@@ -30023,7 +30793,7 @@
         <v>78</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -30055,7 +30825,7 @@
       <c r="AF194" s="3"/>
       <c r="AG194" s="4"/>
       <c r="AH194" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
@@ -30215,7 +30985,7 @@
       <c r="B196" s="25"/>
       <c r="C196" s="29"/>
       <c r="D196" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -30247,7 +31017,7 @@
       <c r="AF196" s="6"/>
       <c r="AG196" s="7"/>
       <c r="AH196" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI196" s="6"/>
       <c r="AJ196" s="6"/>
@@ -30314,7 +31084,7 @@
       <c r="C197" s="29"/>
       <c r="D197" s="5"/>
       <c r="E197" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -30688,7 +31458,7 @@
       <c r="B201" s="25"/>
       <c r="C201" s="29"/>
       <c r="D201" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -30720,7 +31490,7 @@
       <c r="AF201" s="6"/>
       <c r="AG201" s="7"/>
       <c r="AH201" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI201" s="6"/>
       <c r="AJ201" s="6"/>
@@ -30793,7 +31563,7 @@
       <c r="C202" s="29"/>
       <c r="D202" s="5"/>
       <c r="E202" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -30889,7 +31659,7 @@
       <c r="D203" s="5"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
@@ -30984,7 +31754,7 @@
       <c r="D204" s="5"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
@@ -31081,7 +31851,7 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -31179,7 +31949,7 @@
       <c r="D206" s="5"/>
       <c r="E206" s="6"/>
       <c r="F206" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
@@ -31368,7 +32138,7 @@
       <c r="C208" s="29"/>
       <c r="D208" s="5"/>
       <c r="E208" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -31464,7 +32234,7 @@
       <c r="C209" s="29"/>
       <c r="D209" s="5"/>
       <c r="F209" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
@@ -31559,7 +32329,7 @@
       <c r="C210" s="29"/>
       <c r="D210" s="5"/>
       <c r="F210" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
@@ -31654,7 +32424,7 @@
       <c r="C211" s="29"/>
       <c r="D211" s="5"/>
       <c r="F211" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
@@ -31749,7 +32519,7 @@
       <c r="C212" s="29"/>
       <c r="D212" s="5"/>
       <c r="F212" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
@@ -31844,7 +32614,7 @@
       <c r="C213" s="29"/>
       <c r="D213" s="5"/>
       <c r="F213" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
@@ -32032,7 +32802,7 @@
       <c r="C215" s="29"/>
       <c r="D215" s="5"/>
       <c r="E215" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F215" s="11"/>
       <c r="G215" s="6"/>
@@ -32128,7 +32898,7 @@
       <c r="C216" s="29"/>
       <c r="D216" s="5"/>
       <c r="F216" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
@@ -32316,7 +33086,7 @@
       <c r="B218" s="25"/>
       <c r="C218" s="29"/>
       <c r="D218" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -32348,7 +33118,7 @@
       <c r="AF218" s="6"/>
       <c r="AG218" s="7"/>
       <c r="AH218" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AI218" s="6"/>
       <c r="AJ218" s="6"/>
@@ -32415,7 +33185,7 @@
       <c r="C219" s="29"/>
       <c r="D219" s="5"/>
       <c r="E219" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -33450,7 +34220,7 @@
       <c r="B230" s="25"/>
       <c r="C230" s="29"/>
       <c r="D230" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -33482,7 +34252,7 @@
       <c r="AF230" s="6"/>
       <c r="AG230" s="7"/>
       <c r="AH230" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AI230" s="6"/>
       <c r="AJ230" s="6"/>
@@ -34154,11 +34924,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212E3485-DD1F-4746-A8B8-3B078135C13D}">
   <dimension ref="B3:CO42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -34471,7 +35243,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -35701,7 +36473,7 @@
       <c r="C19" s="25"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -36085,7 +36857,7 @@
       <c r="C23" s="25"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -36847,7 +37619,7 @@
       <c r="C31" s="25"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -37036,7 +37808,7 @@
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="6"/>
@@ -37068,7 +37840,7 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="7"/>
       <c r="AH33" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
@@ -37135,7 +37907,7 @@
       <c r="C34" s="25"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -37231,7 +38003,7 @@
       <c r="C35" s="25"/>
       <c r="D35" s="5"/>
       <c r="E35" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -37420,7 +38192,7 @@
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -37452,7 +38224,7 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="7"/>
       <c r="AH37" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
